--- a/data/neighborhoods.xlsx
+++ b/data/neighborhoods.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="İstanbul" sheetId="1" r:id="rId1"/>
+    <sheet name="Çanakkale" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,19 +20,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Neighborhood</t>
   </si>
   <si>
     <t>Bağcılar</t>
+  </si>
+  <si>
+    <t>Arnavutköy</t>
+  </si>
+  <si>
+    <t>Ataşehir</t>
+  </si>
+  <si>
+    <t>Avcılar</t>
+  </si>
+  <si>
+    <t>Bahçelievler</t>
+  </si>
+  <si>
+    <t>Bakırköy</t>
+  </si>
+  <si>
+    <t>Başakşehir</t>
+  </si>
+  <si>
+    <t>Bayrampaşa</t>
+  </si>
+  <si>
+    <t>Beşiktaş</t>
+  </si>
+  <si>
+    <t>Beykoz</t>
+  </si>
+  <si>
+    <t>Beylikdüzü</t>
+  </si>
+  <si>
+    <t>Beyoğlu</t>
+  </si>
+  <si>
+    <t>Büyükçekmece</t>
+  </si>
+  <si>
+    <t>Çatalca</t>
+  </si>
+  <si>
+    <t>Çekmeköy</t>
+  </si>
+  <si>
+    <t>Esenler</t>
+  </si>
+  <si>
+    <t>Esenyurt</t>
+  </si>
+  <si>
+    <t>Eyüp</t>
+  </si>
+  <si>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>Gaziosmanpaşa</t>
+  </si>
+  <si>
+    <t>Güngören</t>
+  </si>
+  <si>
+    <t>Kadıköy</t>
+  </si>
+  <si>
+    <t>Kâğıthane</t>
+  </si>
+  <si>
+    <t>Kartal</t>
+  </si>
+  <si>
+    <t>Küçükçekmece</t>
+  </si>
+  <si>
+    <t>Maltepe</t>
+  </si>
+  <si>
+    <t>Pendik</t>
+  </si>
+  <si>
+    <t>Sancaktepe</t>
+  </si>
+  <si>
+    <t>Sarıyer</t>
+  </si>
+  <si>
+    <t>Silivri</t>
+  </si>
+  <si>
+    <t>Sultanbeyli</t>
+  </si>
+  <si>
+    <t>Sultangazi</t>
+  </si>
+  <si>
+    <t>Şile</t>
+  </si>
+  <si>
+    <t>Şişli</t>
+  </si>
+  <si>
+    <t>Tuzla</t>
+  </si>
+  <si>
+    <t>Ümraniye</t>
+  </si>
+  <si>
+    <t>Üsküdar</t>
+  </si>
+  <si>
+    <t>Zeytinburnu</t>
+  </si>
+  <si>
+    <t>Ayvacık</t>
+  </si>
+  <si>
+    <t>Bayramiç</t>
+  </si>
+  <si>
+    <t>Biga</t>
+  </si>
+  <si>
+    <t>Bozcaada</t>
+  </si>
+  <si>
+    <t>Çan</t>
+  </si>
+  <si>
+    <t>Eceabat</t>
+  </si>
+  <si>
+    <t>Ezine</t>
+  </si>
+  <si>
+    <t>Gelibolu</t>
+  </si>
+  <si>
+    <t>Lapseki</t>
+  </si>
+  <si>
+    <t>Gökçeada</t>
+  </si>
+  <si>
+    <t>Yenice</t>
+  </si>
+  <si>
+    <t>Çanakkale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +193,38 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,17 +232,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,10 +544,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -368,12 +773,81 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="28.8">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.investincanakkale.com/canakkale/ilceler/ayvacik"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.investincanakkale.com/canakkale/ilceler/bayramic"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.investincanakkale.com/canakkale/ilceler/biga"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.investincanakkale.com/canakkale/ilceler/bozcaada"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.investincanakkale.com/canakkale/ilceler/can"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.investincanakkale.com/canakkale/ilceler/eceabat"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.investincanakkale.com/canakkale/ilceler/ezine"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.investincanakkale.com/canakkale/ilceler/gelibolu"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.investincanakkale.com/canakkale/ilceler/lapseki"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.investincanakkale.com/canakkale/ilceler/gokceada"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://www.investincanakkale.com/canakkale/ilceler/merkez"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://www.investincanakkale.com/canakkale/ilceler/yenice"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>